--- a/SystemDescriptor test plan (1).xlsx
+++ b/SystemDescriptor test plan (1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Requirements</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>TRS.SYSDESC.INOUT.001</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>TRS.SYSDESC.INOUT.002</t>
@@ -1014,19 +1011,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1390,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1416,9 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1458,9 +1446,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,15 +1498,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1557,6 +1533,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1997,142 +1985,142 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="13" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>83</v>
+      <c r="D3" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,265 +2133,265 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="61" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C3" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="22" t="s">
+      <c r="D4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="22" t="s">
+      <c r="C5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="51" t="s">
+      <c r="C6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="52"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="52"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2414,16 +2402,16 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23" t="s">
-        <v>24</v>
+      <c r="A15" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2434,16 +2422,16 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23" t="s">
-        <v>25</v>
+      <c r="A16" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2454,18 +2442,18 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="23" t="s">
-        <v>26</v>
+      <c r="A17" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
@@ -2474,393 +2462,393 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" s="57"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B20" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45">
-      <c r="A19" s="62"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45">
-      <c r="A20" s="51" t="s">
+      <c r="C20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
+      <c r="A21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="75">
+      <c r="A25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60">
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60">
+      <c r="A28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60">
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60">
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="38" t="s">
+      <c r="B34" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="57"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1">
+      <c r="A36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A38" s="53"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="52"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="75">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="60">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="60">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="52"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45">
-      <c r="A34" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="62"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1">
-      <c r="A36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="47" t="s">
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A40" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="49" t="s">
+      <c r="B40" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A40" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="42" t="s">
+      <c r="C40" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>67</v>
+      <c r="D40" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>5</v>
